--- a/CS575/Project_5/Project_5_Data_formatted.xlsx
+++ b/CS575/Project_5/Project_5_Data_formatted.xlsx
@@ -3408,7 +3408,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
       <selection activeCell="M49" sqref="M49"/>
     </sheetView>
   </sheetViews>
